--- a/Testshixun/data/user4.xlsx
+++ b/Testshixun/data/user4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10080" windowHeight="4815"/>
+    <workbookView windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="31">
   <si>
     <t>firstname</t>
   </si>
@@ -23,9 +23,6 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>token</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -56,61 +53,61 @@
     <t>$%^</t>
   </si>
   <si>
+    <t>@qq.com</t>
+  </si>
+  <si>
+    <t>123aaa</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>sss#$%</t>
+  </si>
+  <si>
+    <t>#$%^</t>
+  </si>
+  <si>
+    <t>123$%^</t>
+  </si>
+  <si>
+    <t>123abc</t>
+  </si>
+  <si>
+    <t>6529@qq.com</t>
+  </si>
+  <si>
+    <t>123abd#$%</t>
+  </si>
+  <si>
+    <t>abc$%^</t>
+  </si>
+  <si>
+    <t>$%^123</t>
+  </si>
+  <si>
+    <t>acb123</t>
+  </si>
+  <si>
     <t>bbb</t>
   </si>
   <si>
-    <t>@qq.com</t>
-  </si>
-  <si>
-    <t>123aaa</t>
-  </si>
-  <si>
-    <t>ccc</t>
-  </si>
-  <si>
-    <t>aaaa</t>
-  </si>
-  <si>
-    <t>sss#$%</t>
-  </si>
-  <si>
-    <t>123abc</t>
-  </si>
-  <si>
-    <t>#$%^</t>
-  </si>
-  <si>
-    <t>123$%^</t>
-  </si>
-  <si>
-    <t>void</t>
-  </si>
-  <si>
-    <t>6529@qq.com</t>
-  </si>
-  <si>
-    <t>123abd#$%</t>
-  </si>
-  <si>
-    <t>abc$%^</t>
-  </si>
-  <si>
-    <t>@#$</t>
-  </si>
-  <si>
-    <t>$%^123</t>
-  </si>
-  <si>
-    <t>public</t>
-  </si>
-  <si>
-    <t>acb123</t>
-  </si>
-  <si>
-    <t>abc#$%123</t>
-  </si>
-  <si>
     <t>#$%123</t>
+  </si>
+  <si>
+    <t>ying</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>abc.com</t>
   </si>
 </sst>
 </file>
@@ -123,7 +120,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,12 +130,111 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -146,10 +242,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,123 +258,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,67 +282,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,31 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,79 +462,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,19 +479,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,6 +500,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -536,17 +530,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,8 +544,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,148 +576,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,18 +1043,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1095,31 +1085,25 @@
       <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>111</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
@@ -1130,17 +1114,11 @@
       <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2">
+      <c r="J2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1151,115 +1129,97 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>123</v>
+        <v>652978478</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="H3">
-        <v>652978478</v>
+      <c r="H3" t="s">
+        <v>9</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3">
+      <c r="J3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4">
+      <c r="J4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:12">
+    <row r="5" customFormat="1" spans="1:10">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5">
+      <c r="J5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -1271,177 +1231,211 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I6" t="s">
         <v>4</v>
       </c>
-      <c r="J6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6">
+      <c r="J6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
       <c r="G7" t="s">
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I7" t="s">
         <v>4</v>
       </c>
-      <c r="J7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7">
+      <c r="J7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:12">
+    <row r="8" customFormat="1" spans="1:10">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
-      <c r="F8" t="s">
-        <v>26</v>
+      <c r="F8">
+        <v>1234</v>
       </c>
       <c r="G8" t="s">
         <v>3</v>
       </c>
-      <c r="H8">
-        <v>1234</v>
+      <c r="H8" t="s">
+        <v>8</v>
       </c>
       <c r="I8" t="s">
         <v>4</v>
       </c>
-      <c r="J8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8">
+      <c r="J8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I9" t="s">
         <v>4</v>
       </c>
-      <c r="J9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9">
+      <c r="J9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="I10" t="s">
         <v>4</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
         <v>9</v>
       </c>
-      <c r="K10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
+      <c r="I11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
